--- a/logintestdata.xlsx
+++ b/logintestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazrinasari/Documents/automation/playwright2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DB5B4-0A2E-DF4C-935C-390C53E99631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDDF64-047E-EA40-819C-168758B25A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Environment</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>automation-assessment</t>
+  </si>
+  <si>
+    <t>Name On Card</t>
+  </si>
+  <si>
+    <t>Card Number</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>Expiration MM</t>
+  </si>
+  <si>
+    <t>Expiration YYYY</t>
+  </si>
+  <si>
+    <t>automation assessment</t>
   </si>
 </sst>
 </file>
@@ -446,19 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="5" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +491,23 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,8 +520,23 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>4444444444444440</v>
+      </c>
+      <c r="G2">
+        <v>111</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -499,8 +549,23 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4444444444444440</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,6 +577,21 @@
       </c>
       <c r="D4" t="s">
         <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4444444444444440</v>
+      </c>
+      <c r="G4">
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
